--- a/src/main/java/testdata/Registration_Form.xlsx
+++ b/src/main/java/testdata/Registration_Form.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>FirstName</t>
   </si>
@@ -114,6 +114,114 @@
   </si>
   <si>
     <t>Registration Form is Successfully Submitted. The Transaction ID : 1284356036</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 5556415723</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 9384617652</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 1457797884</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 8815762333</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 5713502990</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 3783500572</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 8935814600</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 2831865912</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 6772499680</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 2169481862</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 3180951425</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 8408643037</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 6924030111</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 6661511816</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 2813220108</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 5987033582</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 5522401991</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 3381786678</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 8326586088</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 6441876551</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 6412612713</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 1160883934</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 3034770155</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 4620615237</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 1688701572</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 9538921591</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 6934655675</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 4344843775</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 9401968766</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 4033072704</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 8731006018</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 6527185333</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 9556745275</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 5994338392</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 9512942086</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 7490931433</t>
   </si>
 </sst>
 </file>
@@ -554,7 +662,7 @@
         <v>16</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -577,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/testdata/Registration_Form.xlsx
+++ b/src/main/java/testdata/Registration_Form.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>FirstName</t>
   </si>
@@ -222,6 +222,36 @@
   </si>
   <si>
     <t>Registration Form is Successfully Submitted. The Transaction ID : 7490931433</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 1707341973</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 3856788230</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 1514263955</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 5333055163</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 4636397982</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 6736598913</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 6602011927</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 7623297942</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 9588601979</t>
+  </si>
+  <si>
+    <t>Registration Form is Successfully Submitted. The Transaction ID : 4019935315</t>
   </si>
 </sst>
 </file>
@@ -662,7 +692,7 @@
         <v>16</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -685,7 +715,7 @@
         <v>17</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
